--- a/biology/Zoologie/Fasciolaria_tulipa/Fasciolaria_tulipa.xlsx
+++ b/biology/Zoologie/Fasciolaria_tulipa/Fasciolaria_tulipa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fasciolaria tulipa est une espèce de mollusque marin appartenant à la famille des Fasciolariidae. Ce sont des escargots de mer prédateurs subtropicaux et tropicaux de l'océan Atlantique Ouest.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre depuis la côte de la Caroline du Nord tout au sud et l'ouest jusqu'à la côte du golfe du Mexique, également dans les Antilles.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le mot «tulipe», décrit la forme générale de la coquille de ces espèces, qui ressemble à une fleur de tulipe fermée. On peut compter jusqu'à 9 spires. La surface est lisse, à l'exception de très fines lignes de croissance. L'opercule est épais, et lourd. La coquille est blanchâtre à brune, avec des rangées de taches brun foncé de tailles diverses; en plus des taches il existe fines lignes qui courent le long des spires de la coquille. L'animal vivant est orange vif.
 Longueur pour un adulte : de 6,4 à  24,1 cm.</t>
@@ -573,7 +589,9 @@
           <t>Habitus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit habituellement dans le sable ou la boue à environ 10 mètres de profondeur. Elle est molluscivore : cet escargot se nourrit de bivalves et de gastéropodes divers, y compris individu de sa propre espèce.
 </t>
